--- a/biology/Zoologie/Blennius_ocellaris/Blennius_ocellaris.xlsx
+++ b/biology/Zoologie/Blennius_ocellaris/Blennius_ocellaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blennius ocellaris, la Blennie ocellée ou Blennie papillon, est une espèce de poissons marins de la famille des Blenniidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette blennie est aisément identifiable : la partie antérieure de la nageoire dorsale est surélevée et est marquée d'un ocelle noir cerclé de clair.
 </t>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Atlantique, mer du Nord, mer Méditerranée.
-La Blennie ocellée se trouve plus en profondeur que les autres espèces de la famille des Blenniidae : on ne la rencontre qu'à partir de 25-30 mètres et elle vit bien au-delà du talus continental[1].
+La Blennie ocellée se trouve plus en profondeur que les autres espèces de la famille des Blenniidae : on ne la rencontre qu'à partir de 25-30 mètres et elle vit bien au-delà du talus continental.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
